--- a/Assignments/Book2.xlsx
+++ b/Assignments/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishalshah/cg-workspace-1029/Assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5EFD9A-8D33-0B45-B340-BA4C85AEA5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D282FB-465F-974A-9E9D-1F2B4BA3E951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14560" xr2:uid="{6AEBE56F-DBCC-DA4D-B8A7-FD1DAEFCD973}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t xml:space="preserve">Product Service </t>
   </si>
@@ -85,14 +85,31 @@
   </si>
   <si>
     <t>http://localhost:8085/api/prices?currency=INR</t>
+  </si>
+  <si>
+    <t>Resource Type</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -141,13 +158,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -463,23 +481,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC9CC86-540C-0B43-9239-E2840762EDB0}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="43.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="2" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="43.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -487,47 +505,54 @@
         <v>8080</v>
       </c>
       <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -535,46 +560,54 @@
         <v>8085</v>
       </c>
       <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="3:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{9217C206-D070-CF4D-998B-515D1499F4C8}"/>
-    <hyperlink ref="E17" r:id="rId2" xr:uid="{47E25C6A-5AD0-D14C-9A54-FAE1FE0490CC}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{35A6FC51-B543-7344-905E-75EF50BBAC8F}"/>
-    <hyperlink ref="E18" r:id="rId4" xr:uid="{7BA4461B-6F2A-F44D-99D8-FA3B4572D016}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{9217C206-D070-CF4D-998B-515D1499F4C8}"/>
+    <hyperlink ref="F17" r:id="rId2" xr:uid="{47E25C6A-5AD0-D14C-9A54-FAE1FE0490CC}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{35A6FC51-B543-7344-905E-75EF50BBAC8F}"/>
+    <hyperlink ref="F18" r:id="rId4" xr:uid="{7BA4461B-6F2A-F44D-99D8-FA3B4572D016}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
